--- a/synth-lieux.xlsx
+++ b/synth-lieux.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbourdieu\Documents\GitHub\aidsberlinmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65FAAE2-A47B-4A10-966F-BA8CF16B3CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D90EABB-6D52-45D5-865E-BAB5B39B5EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="synth-lieux" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="151">
   <si>
     <t>Place</t>
   </si>
@@ -37,9 +48,6 @@
     <t>Keywords</t>
   </si>
   <si>
-    <t>Accessibility</t>
-  </si>
-  <si>
     <t>East or west</t>
   </si>
   <si>
@@ -245,12 +253,6 @@
   </si>
   <si>
     <t>16.05</t>
-  </si>
-  <si>
-    <t>Courage</t>
-  </si>
-  <si>
-    <t>Gays, lesbians</t>
   </si>
   <si>
     <t>Gethsemane Kirche</t>
@@ -453,17 +455,54 @@
   </si>
   <si>
     <t>Visited</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Pics</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!4v1717430794159!6m8!1m7!1sRtghzChN6JplvBmQGBr25Q!2m2!1d52.51037898530988!2d13.38980174985009!3f333.31!4f0!5f0.7820865974627469" width="450" height="225" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!4v1717431014651!6m8!1m7!1s18yVjaI3ITLBplcxC84WCw!2m2!1d52.50260605205433!2d13.42025364622527!3f274.52606!4f0!5f0.7820865974627469" width="450" height="225" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!4v1717431144574!6m8!1m7!1sHTOinfdBXm_zijrZsvLnxw!2m2!1d52.49320337459629!2d13.36846897838941!3f202.31319!4f0!5f0.7820865974627469" width="450" height="225" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!4v1717431606346!6m8!1m7!1s2GBye4nTJeYDblv_x-WMtQ!2m2!1d52.49689212835904!2d13.3615870839851!3f108.40209798152524!4f0.4835356717653383!5f1.0900294617962838" width="450" height="225" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!4v1717431752463!6m8!1m7!1suaOsBeTlv1L515J3_JHQqw!2m2!1d52.49326870004999!2d13.36765013620316!3f166.4437867928268!4f5.595683959944893!5f0.9760854960976897" width="450" height="225" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!4v1717431897473!6m8!1m7!1stbndKKwd-jHwvLapS6CeGw!2m2!1d52.496634018591!2d13.36555287330344!3f253.74!4f0!5f0.7820865974627469" width="450" height="225" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!4v1717431925582!6m8!1m7!1sTw5w46QadBweWOSUYUEdmA!2m2!1d52.49772000873742!2d13.35139783537853!3f334.5663!4f0!5f0.7820865974627469" width="450" height="225" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,7 +527,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -496,11 +535,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -511,30 +561,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -545,7 +597,104 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -564,7 +713,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -580,7 +729,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -596,8 +745,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -613,7 +761,26 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -629,7 +796,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -645,103 +812,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,21 +828,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:L25" dataDxfId="2">
-  <autoFilter ref="A1:L25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:M24" dataDxfId="0">
+  <autoFilter ref="A1:M24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="13" xr3:uid="{7F05AC7D-AE5E-4952-84F6-899ED8CDA61B}" name="ID" dataDxfId="13">
+      <calculatedColumnFormula>_xlfn.CONCAT(RIGHT(D2,4),LEFT(E2,2),LEFT(H2,2))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Place" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{E27161A4-82BF-47C3-9074-123393C48385}" name="Visited" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{FFF84B55-0B11-4E91-A32B-6A8873EBB4AA}" name="Adresse" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{A64ACA5C-48ED-4375-85D8-6B19E7BB5C33}" name="AddrPlain" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{43E476ED-054C-48CC-86E7-7D10F5F163C6}" name="Now" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Timeline" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Community" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Keywords" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Accessibility" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="East or west" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Date" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{E27161A4-82BF-47C3-9074-123393C48385}" name="Visited" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{FFF84B55-0B11-4E91-A32B-6A8873EBB4AA}" name="Adresse" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{A64ACA5C-48ED-4375-85D8-6B19E7BB5C33}" name="AddrPlain" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{43E476ED-054C-48CC-86E7-7D10F5F163C6}" name="Now" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Timeline" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Community" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Keywords" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="East or west" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Date" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{88C70B20-3210-4781-B3F6-DA4115B855FF}" name="Pics" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -987,921 +1063,1049 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E6:E7"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="1"/>
-    <col min="2" max="2" width="3.88671875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="22.5546875" style="3"/>
-    <col min="5" max="5" width="22.5546875" style="1"/>
-    <col min="6" max="6" width="22.5546875" style="3"/>
-    <col min="7" max="7" width="11.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" style="1"/>
-    <col min="9" max="9" width="125.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="1"/>
+    <col min="3" max="3" width="3.88671875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="22.5546875" style="3"/>
+    <col min="6" max="6" width="22.5546875" style="1"/>
+    <col min="7" max="7" width="22.5546875" style="3"/>
+    <col min="8" max="8" width="11.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" style="1"/>
+    <col min="10" max="10" width="21.109375" style="7" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" customWidth="1"/>
     <col min="13" max="16384" width="22.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>88</v>
+      <c r="C1" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="str">
+        <f>_xlfn.CONCAT(RIGHT(D2,4),LEFT(E2,2),RIGHT(H2,2))</f>
+        <v>6707Fr92</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4">
         <v>1992</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="str">
+        <f t="shared" ref="A3:A24" si="0">_xlfn.CONCAT(RIGHT(D3,4),LEFT(E3,2),RIGHT(H3,2))</f>
+        <v>9707Ad80</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4">
         <v>1980</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0462Gr39</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>91</v>
+      <c r="C4" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6303Ku99</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4">
         <v>1999</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/6303Ku99.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6303Ku81</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1981</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1981</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/6303Ku81.jpg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6303Ku84</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4">
         <v>1984</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/6303Ku84.jpg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>8488Po86</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1986</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3086Yo75</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1975</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3082Bü20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1920</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3834No33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1986</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="E11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3763Mo20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1975</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="G12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1920</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/3763Mo20.jpg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2193Lü85</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="4">
-        <v>1920</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1985</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/2193Lü85.jpg</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>8839Ku85</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1985</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/8839Ku85.jpg</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3027Gr10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1920</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1985</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1985</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="K15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/3027Gr10.jpg</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6687Eb08</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="C16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="G16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2008</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/6687Eb08.jpg</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7346Co04</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2004</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/7346Co04.jpg</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1467Be80</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="4">
-        <v>2008</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2004</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>70</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="J18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="M18" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/1467Be80.jpg</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>422793</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="C19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="4">
-        <v>1989</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1893</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/422793.jpg</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2694Gr87</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="E20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1987</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1893</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/2694Gr87.jpg</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7881An70</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="4">
-        <v>1987</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="G21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1970</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/7881An70.jpg</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>8163Kl82</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1982</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1970</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="K22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>129</v>
+        <v>17</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/8163Kl82.jpg</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>17171086</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1986</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/17171086.jpg</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6508Kö80</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="F24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1982</v>
-      </c>
-      <c r="H23" s="4" t="s">
+      <c r="H24" s="4">
+        <v>1980</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1986</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1980</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="4" t="str">
+        <f>_xlfn.CONCAT("/pics/",Tableau1[[#This Row],[ID]],".jpg")</f>
+        <v>/pics/6508Kö80.jpg</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
